--- a/resultados_modelos_clasificacion_ODS.xlsx
+++ b/resultados_modelos_clasificacion_ODS.xlsx
@@ -891,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -1024,7 +1024,7 @@
         <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
         <v>3</v>
@@ -1081,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E34" t="n">
         <v>4</v>
@@ -1100,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
@@ -1347,7 +1347,7 @@
         <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E48" t="n">
         <v>4</v>
@@ -1765,7 +1765,7 @@
         <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E70" t="n">
         <v>1</v>
@@ -2563,7 +2563,7 @@
         <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
         <v>1</v>
@@ -2791,7 +2791,7 @@
         <v>4</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -3171,7 +3171,7 @@
         <v>3</v>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E144" t="n">
         <v>3</v>
@@ -3893,7 +3893,7 @@
         <v>3</v>
       </c>
       <c r="D182" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E182" t="n">
         <v>3</v>
@@ -4558,7 +4558,7 @@
         <v>1</v>
       </c>
       <c r="D217" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E217" t="n">
         <v>3</v>
@@ -4881,7 +4881,7 @@
         <v>3</v>
       </c>
       <c r="D234" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E234" t="n">
         <v>3</v>

--- a/resultados_modelos_clasificacion_ODS.xlsx
+++ b/resultados_modelos_clasificacion_ODS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E244"/>
+  <dimension ref="A1:F244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>predicciones_knn</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>predicciones_red_neuronal_bow</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -478,6 +483,9 @@
       <c r="E2" t="n">
         <v>3</v>
       </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -497,6 +505,9 @@
       <c r="E3" t="n">
         <v>3</v>
       </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -516,6 +527,9 @@
       <c r="E4" t="n">
         <v>3</v>
       </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -535,6 +549,9 @@
       <c r="E5" t="n">
         <v>4</v>
       </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -554,6 +571,9 @@
       <c r="E6" t="n">
         <v>4</v>
       </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -573,6 +593,9 @@
       <c r="E7" t="n">
         <v>1</v>
       </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -592,6 +615,9 @@
       <c r="E8" t="n">
         <v>4</v>
       </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -611,6 +637,9 @@
       <c r="E9" t="n">
         <v>4</v>
       </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -630,6 +659,9 @@
       <c r="E10" t="n">
         <v>3</v>
       </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -649,6 +681,9 @@
       <c r="E11" t="n">
         <v>1</v>
       </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -668,6 +703,9 @@
       <c r="E12" t="n">
         <v>4</v>
       </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -687,6 +725,9 @@
       <c r="E13" t="n">
         <v>1</v>
       </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -706,6 +747,9 @@
       <c r="E14" t="n">
         <v>3</v>
       </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -725,6 +769,9 @@
       <c r="E15" t="n">
         <v>3</v>
       </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -744,6 +791,9 @@
       <c r="E16" t="n">
         <v>1</v>
       </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -763,6 +813,9 @@
       <c r="E17" t="n">
         <v>3</v>
       </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -782,6 +835,9 @@
       <c r="E18" t="n">
         <v>4</v>
       </c>
+      <c r="F18" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -801,6 +857,9 @@
       <c r="E19" t="n">
         <v>4</v>
       </c>
+      <c r="F19" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -820,6 +879,9 @@
       <c r="E20" t="n">
         <v>4</v>
       </c>
+      <c r="F20" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -839,6 +901,9 @@
       <c r="E21" t="n">
         <v>4</v>
       </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -858,6 +923,9 @@
       <c r="E22" t="n">
         <v>4</v>
       </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -877,6 +945,9 @@
       <c r="E23" t="n">
         <v>3</v>
       </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -896,6 +967,9 @@
       <c r="E24" t="n">
         <v>1</v>
       </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -915,6 +989,9 @@
       <c r="E25" t="n">
         <v>3</v>
       </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -934,6 +1011,9 @@
       <c r="E26" t="n">
         <v>4</v>
       </c>
+      <c r="F26" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -953,6 +1033,9 @@
       <c r="E27" t="n">
         <v>4</v>
       </c>
+      <c r="F27" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -972,6 +1055,9 @@
       <c r="E28" t="n">
         <v>3</v>
       </c>
+      <c r="F28" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -991,6 +1077,9 @@
       <c r="E29" t="n">
         <v>3</v>
       </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1010,6 +1099,9 @@
       <c r="E30" t="n">
         <v>4</v>
       </c>
+      <c r="F30" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1029,6 +1121,9 @@
       <c r="E31" t="n">
         <v>3</v>
       </c>
+      <c r="F31" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1048,6 +1143,9 @@
       <c r="E32" t="n">
         <v>3</v>
       </c>
+      <c r="F32" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1067,6 +1165,9 @@
       <c r="E33" t="n">
         <v>1</v>
       </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1086,6 +1187,9 @@
       <c r="E34" t="n">
         <v>4</v>
       </c>
+      <c r="F34" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1105,6 +1209,9 @@
       <c r="E35" t="n">
         <v>1</v>
       </c>
+      <c r="F35" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1124,6 +1231,9 @@
       <c r="E36" t="n">
         <v>4</v>
       </c>
+      <c r="F36" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1143,6 +1253,9 @@
       <c r="E37" t="n">
         <v>4</v>
       </c>
+      <c r="F37" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1162,6 +1275,9 @@
       <c r="E38" t="n">
         <v>3</v>
       </c>
+      <c r="F38" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1181,6 +1297,9 @@
       <c r="E39" t="n">
         <v>4</v>
       </c>
+      <c r="F39" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1200,6 +1319,9 @@
       <c r="E40" t="n">
         <v>3</v>
       </c>
+      <c r="F40" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1219,6 +1341,9 @@
       <c r="E41" t="n">
         <v>4</v>
       </c>
+      <c r="F41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1238,6 +1363,9 @@
       <c r="E42" t="n">
         <v>3</v>
       </c>
+      <c r="F42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1257,6 +1385,9 @@
       <c r="E43" t="n">
         <v>3</v>
       </c>
+      <c r="F43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1276,6 +1407,9 @@
       <c r="E44" t="n">
         <v>1</v>
       </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1295,6 +1429,9 @@
       <c r="E45" t="n">
         <v>4</v>
       </c>
+      <c r="F45" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1314,6 +1451,9 @@
       <c r="E46" t="n">
         <v>4</v>
       </c>
+      <c r="F46" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1333,6 +1473,9 @@
       <c r="E47" t="n">
         <v>3</v>
       </c>
+      <c r="F47" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1352,6 +1495,9 @@
       <c r="E48" t="n">
         <v>4</v>
       </c>
+      <c r="F48" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1371,6 +1517,9 @@
       <c r="E49" t="n">
         <v>1</v>
       </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1390,6 +1539,9 @@
       <c r="E50" t="n">
         <v>1</v>
       </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1409,6 +1561,9 @@
       <c r="E51" t="n">
         <v>1</v>
       </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1428,6 +1583,9 @@
       <c r="E52" t="n">
         <v>4</v>
       </c>
+      <c r="F52" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1447,6 +1605,9 @@
       <c r="E53" t="n">
         <v>4</v>
       </c>
+      <c r="F53" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1466,6 +1627,9 @@
       <c r="E54" t="n">
         <v>3</v>
       </c>
+      <c r="F54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1485,6 +1649,9 @@
       <c r="E55" t="n">
         <v>4</v>
       </c>
+      <c r="F55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1504,6 +1671,9 @@
       <c r="E56" t="n">
         <v>1</v>
       </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1523,6 +1693,9 @@
       <c r="E57" t="n">
         <v>1</v>
       </c>
+      <c r="F57" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1542,6 +1715,9 @@
       <c r="E58" t="n">
         <v>4</v>
       </c>
+      <c r="F58" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1561,6 +1737,9 @@
       <c r="E59" t="n">
         <v>4</v>
       </c>
+      <c r="F59" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1580,6 +1759,9 @@
       <c r="E60" t="n">
         <v>4</v>
       </c>
+      <c r="F60" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1599,6 +1781,9 @@
       <c r="E61" t="n">
         <v>1</v>
       </c>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1618,6 +1803,9 @@
       <c r="E62" t="n">
         <v>3</v>
       </c>
+      <c r="F62" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1637,6 +1825,9 @@
       <c r="E63" t="n">
         <v>1</v>
       </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1656,6 +1847,9 @@
       <c r="E64" t="n">
         <v>3</v>
       </c>
+      <c r="F64" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1675,6 +1869,9 @@
       <c r="E65" t="n">
         <v>4</v>
       </c>
+      <c r="F65" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1694,6 +1891,9 @@
       <c r="E66" t="n">
         <v>3</v>
       </c>
+      <c r="F66" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1713,6 +1913,9 @@
       <c r="E67" t="n">
         <v>4</v>
       </c>
+      <c r="F67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1732,6 +1935,9 @@
       <c r="E68" t="n">
         <v>4</v>
       </c>
+      <c r="F68" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1751,6 +1957,9 @@
       <c r="E69" t="n">
         <v>4</v>
       </c>
+      <c r="F69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1770,6 +1979,9 @@
       <c r="E70" t="n">
         <v>1</v>
       </c>
+      <c r="F70" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1789,6 +2001,9 @@
       <c r="E71" t="n">
         <v>3</v>
       </c>
+      <c r="F71" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1808,6 +2023,9 @@
       <c r="E72" t="n">
         <v>4</v>
       </c>
+      <c r="F72" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1827,6 +2045,9 @@
       <c r="E73" t="n">
         <v>4</v>
       </c>
+      <c r="F73" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1846,6 +2067,9 @@
       <c r="E74" t="n">
         <v>4</v>
       </c>
+      <c r="F74" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1865,6 +2089,9 @@
       <c r="E75" t="n">
         <v>4</v>
       </c>
+      <c r="F75" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1884,6 +2111,9 @@
       <c r="E76" t="n">
         <v>1</v>
       </c>
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1903,6 +2133,9 @@
       <c r="E77" t="n">
         <v>3</v>
       </c>
+      <c r="F77" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1922,6 +2155,9 @@
       <c r="E78" t="n">
         <v>4</v>
       </c>
+      <c r="F78" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1941,6 +2177,9 @@
       <c r="E79" t="n">
         <v>4</v>
       </c>
+      <c r="F79" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1960,6 +2199,9 @@
       <c r="E80" t="n">
         <v>4</v>
       </c>
+      <c r="F80" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1979,6 +2221,9 @@
       <c r="E81" t="n">
         <v>3</v>
       </c>
+      <c r="F81" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1998,6 +2243,9 @@
       <c r="E82" t="n">
         <v>3</v>
       </c>
+      <c r="F82" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2017,6 +2265,9 @@
       <c r="E83" t="n">
         <v>4</v>
       </c>
+      <c r="F83" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2036,6 +2287,9 @@
       <c r="E84" t="n">
         <v>3</v>
       </c>
+      <c r="F84" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2055,6 +2309,9 @@
       <c r="E85" t="n">
         <v>4</v>
       </c>
+      <c r="F85" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2074,6 +2331,9 @@
       <c r="E86" t="n">
         <v>1</v>
       </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2093,6 +2353,9 @@
       <c r="E87" t="n">
         <v>4</v>
       </c>
+      <c r="F87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2112,6 +2375,9 @@
       <c r="E88" t="n">
         <v>4</v>
       </c>
+      <c r="F88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2131,6 +2397,9 @@
       <c r="E89" t="n">
         <v>3</v>
       </c>
+      <c r="F89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2150,6 +2419,9 @@
       <c r="E90" t="n">
         <v>4</v>
       </c>
+      <c r="F90" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2169,6 +2441,9 @@
       <c r="E91" t="n">
         <v>4</v>
       </c>
+      <c r="F91" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2188,6 +2463,9 @@
       <c r="E92" t="n">
         <v>4</v>
       </c>
+      <c r="F92" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2207,6 +2485,9 @@
       <c r="E93" t="n">
         <v>1</v>
       </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2226,6 +2507,9 @@
       <c r="E94" t="n">
         <v>3</v>
       </c>
+      <c r="F94" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2245,6 +2529,9 @@
       <c r="E95" t="n">
         <v>3</v>
       </c>
+      <c r="F95" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2264,6 +2551,9 @@
       <c r="E96" t="n">
         <v>3</v>
       </c>
+      <c r="F96" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2283,6 +2573,9 @@
       <c r="E97" t="n">
         <v>4</v>
       </c>
+      <c r="F97" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2302,6 +2595,9 @@
       <c r="E98" t="n">
         <v>4</v>
       </c>
+      <c r="F98" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2321,6 +2617,9 @@
       <c r="E99" t="n">
         <v>3</v>
       </c>
+      <c r="F99" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2340,6 +2639,9 @@
       <c r="E100" t="n">
         <v>4</v>
       </c>
+      <c r="F100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2359,6 +2661,9 @@
       <c r="E101" t="n">
         <v>3</v>
       </c>
+      <c r="F101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2378,6 +2683,9 @@
       <c r="E102" t="n">
         <v>4</v>
       </c>
+      <c r="F102" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2397,6 +2705,9 @@
       <c r="E103" t="n">
         <v>3</v>
       </c>
+      <c r="F103" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2416,6 +2727,9 @@
       <c r="E104" t="n">
         <v>4</v>
       </c>
+      <c r="F104" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2435,6 +2749,9 @@
       <c r="E105" t="n">
         <v>4</v>
       </c>
+      <c r="F105" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2454,6 +2771,9 @@
       <c r="E106" t="n">
         <v>4</v>
       </c>
+      <c r="F106" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2473,6 +2793,9 @@
       <c r="E107" t="n">
         <v>1</v>
       </c>
+      <c r="F107" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2492,6 +2815,9 @@
       <c r="E108" t="n">
         <v>1</v>
       </c>
+      <c r="F108" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2511,6 +2837,9 @@
       <c r="E109" t="n">
         <v>3</v>
       </c>
+      <c r="F109" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2530,6 +2859,9 @@
       <c r="E110" t="n">
         <v>1</v>
       </c>
+      <c r="F110" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2549,6 +2881,9 @@
       <c r="E111" t="n">
         <v>3</v>
       </c>
+      <c r="F111" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2568,6 +2903,9 @@
       <c r="E112" t="n">
         <v>1</v>
       </c>
+      <c r="F112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2587,6 +2925,9 @@
       <c r="E113" t="n">
         <v>4</v>
       </c>
+      <c r="F113" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2606,6 +2947,9 @@
       <c r="E114" t="n">
         <v>3</v>
       </c>
+      <c r="F114" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2625,6 +2969,9 @@
       <c r="E115" t="n">
         <v>1</v>
       </c>
+      <c r="F115" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2644,6 +2991,9 @@
       <c r="E116" t="n">
         <v>1</v>
       </c>
+      <c r="F116" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2663,6 +3013,9 @@
       <c r="E117" t="n">
         <v>4</v>
       </c>
+      <c r="F117" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2682,6 +3035,9 @@
       <c r="E118" t="n">
         <v>4</v>
       </c>
+      <c r="F118" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2701,6 +3057,9 @@
       <c r="E119" t="n">
         <v>3</v>
       </c>
+      <c r="F119" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2720,6 +3079,9 @@
       <c r="E120" t="n">
         <v>3</v>
       </c>
+      <c r="F120" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2739,6 +3101,9 @@
       <c r="E121" t="n">
         <v>1</v>
       </c>
+      <c r="F121" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2758,6 +3123,9 @@
       <c r="E122" t="n">
         <v>4</v>
       </c>
+      <c r="F122" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2777,6 +3145,9 @@
       <c r="E123" t="n">
         <v>4</v>
       </c>
+      <c r="F123" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2796,6 +3167,9 @@
       <c r="E124" t="n">
         <v>4</v>
       </c>
+      <c r="F124" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2815,6 +3189,9 @@
       <c r="E125" t="n">
         <v>4</v>
       </c>
+      <c r="F125" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2834,6 +3211,9 @@
       <c r="E126" t="n">
         <v>4</v>
       </c>
+      <c r="F126" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2853,6 +3233,9 @@
       <c r="E127" t="n">
         <v>4</v>
       </c>
+      <c r="F127" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2872,6 +3255,9 @@
       <c r="E128" t="n">
         <v>1</v>
       </c>
+      <c r="F128" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -2891,6 +3277,9 @@
       <c r="E129" t="n">
         <v>1</v>
       </c>
+      <c r="F129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -2910,6 +3299,9 @@
       <c r="E130" t="n">
         <v>3</v>
       </c>
+      <c r="F130" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2929,6 +3321,9 @@
       <c r="E131" t="n">
         <v>4</v>
       </c>
+      <c r="F131" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2948,6 +3343,9 @@
       <c r="E132" t="n">
         <v>3</v>
       </c>
+      <c r="F132" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2967,6 +3365,9 @@
       <c r="E133" t="n">
         <v>3</v>
       </c>
+      <c r="F133" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2986,6 +3387,9 @@
       <c r="E134" t="n">
         <v>4</v>
       </c>
+      <c r="F134" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3005,6 +3409,9 @@
       <c r="E135" t="n">
         <v>4</v>
       </c>
+      <c r="F135" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3024,6 +3431,9 @@
       <c r="E136" t="n">
         <v>4</v>
       </c>
+      <c r="F136" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3043,6 +3453,9 @@
       <c r="E137" t="n">
         <v>3</v>
       </c>
+      <c r="F137" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3062,6 +3475,9 @@
       <c r="E138" t="n">
         <v>1</v>
       </c>
+      <c r="F138" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3081,6 +3497,9 @@
       <c r="E139" t="n">
         <v>4</v>
       </c>
+      <c r="F139" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3100,6 +3519,9 @@
       <c r="E140" t="n">
         <v>3</v>
       </c>
+      <c r="F140" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3119,6 +3541,9 @@
       <c r="E141" t="n">
         <v>4</v>
       </c>
+      <c r="F141" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3138,6 +3563,9 @@
       <c r="E142" t="n">
         <v>4</v>
       </c>
+      <c r="F142" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3157,6 +3585,9 @@
       <c r="E143" t="n">
         <v>4</v>
       </c>
+      <c r="F143" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3176,6 +3607,9 @@
       <c r="E144" t="n">
         <v>3</v>
       </c>
+      <c r="F144" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3195,6 +3629,9 @@
       <c r="E145" t="n">
         <v>1</v>
       </c>
+      <c r="F145" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3214,6 +3651,9 @@
       <c r="E146" t="n">
         <v>1</v>
       </c>
+      <c r="F146" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3233,6 +3673,9 @@
       <c r="E147" t="n">
         <v>1</v>
       </c>
+      <c r="F147" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3252,6 +3695,9 @@
       <c r="E148" t="n">
         <v>3</v>
       </c>
+      <c r="F148" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3271,6 +3717,9 @@
       <c r="E149" t="n">
         <v>4</v>
       </c>
+      <c r="F149" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3290,6 +3739,9 @@
       <c r="E150" t="n">
         <v>4</v>
       </c>
+      <c r="F150" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3309,6 +3761,9 @@
       <c r="E151" t="n">
         <v>1</v>
       </c>
+      <c r="F151" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3328,6 +3783,9 @@
       <c r="E152" t="n">
         <v>3</v>
       </c>
+      <c r="F152" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3347,6 +3805,9 @@
       <c r="E153" t="n">
         <v>4</v>
       </c>
+      <c r="F153" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3366,6 +3827,9 @@
       <c r="E154" t="n">
         <v>3</v>
       </c>
+      <c r="F154" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -3385,6 +3849,9 @@
       <c r="E155" t="n">
         <v>3</v>
       </c>
+      <c r="F155" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -3404,6 +3871,9 @@
       <c r="E156" t="n">
         <v>3</v>
       </c>
+      <c r="F156" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -3423,6 +3893,9 @@
       <c r="E157" t="n">
         <v>3</v>
       </c>
+      <c r="F157" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -3442,6 +3915,9 @@
       <c r="E158" t="n">
         <v>3</v>
       </c>
+      <c r="F158" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -3461,6 +3937,9 @@
       <c r="E159" t="n">
         <v>3</v>
       </c>
+      <c r="F159" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -3480,6 +3959,9 @@
       <c r="E160" t="n">
         <v>4</v>
       </c>
+      <c r="F160" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3499,6 +3981,9 @@
       <c r="E161" t="n">
         <v>1</v>
       </c>
+      <c r="F161" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -3518,6 +4003,9 @@
       <c r="E162" t="n">
         <v>3</v>
       </c>
+      <c r="F162" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -3537,6 +4025,9 @@
       <c r="E163" t="n">
         <v>3</v>
       </c>
+      <c r="F163" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -3556,6 +4047,9 @@
       <c r="E164" t="n">
         <v>3</v>
       </c>
+      <c r="F164" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -3575,6 +4069,9 @@
       <c r="E165" t="n">
         <v>3</v>
       </c>
+      <c r="F165" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -3594,6 +4091,9 @@
       <c r="E166" t="n">
         <v>1</v>
       </c>
+      <c r="F166" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -3613,6 +4113,9 @@
       <c r="E167" t="n">
         <v>4</v>
       </c>
+      <c r="F167" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -3632,6 +4135,9 @@
       <c r="E168" t="n">
         <v>4</v>
       </c>
+      <c r="F168" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -3651,6 +4157,9 @@
       <c r="E169" t="n">
         <v>3</v>
       </c>
+      <c r="F169" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -3670,6 +4179,9 @@
       <c r="E170" t="n">
         <v>4</v>
       </c>
+      <c r="F170" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -3689,6 +4201,9 @@
       <c r="E171" t="n">
         <v>1</v>
       </c>
+      <c r="F171" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -3708,6 +4223,9 @@
       <c r="E172" t="n">
         <v>4</v>
       </c>
+      <c r="F172" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -3727,6 +4245,9 @@
       <c r="E173" t="n">
         <v>3</v>
       </c>
+      <c r="F173" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -3746,6 +4267,9 @@
       <c r="E174" t="n">
         <v>1</v>
       </c>
+      <c r="F174" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -3765,6 +4289,9 @@
       <c r="E175" t="n">
         <v>1</v>
       </c>
+      <c r="F175" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -3784,6 +4311,9 @@
       <c r="E176" t="n">
         <v>4</v>
       </c>
+      <c r="F176" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -3803,6 +4333,9 @@
       <c r="E177" t="n">
         <v>4</v>
       </c>
+      <c r="F177" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -3822,6 +4355,9 @@
       <c r="E178" t="n">
         <v>4</v>
       </c>
+      <c r="F178" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -3841,6 +4377,9 @@
       <c r="E179" t="n">
         <v>1</v>
       </c>
+      <c r="F179" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -3860,6 +4399,9 @@
       <c r="E180" t="n">
         <v>3</v>
       </c>
+      <c r="F180" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -3879,6 +4421,9 @@
       <c r="E181" t="n">
         <v>4</v>
       </c>
+      <c r="F181" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -3898,6 +4443,9 @@
       <c r="E182" t="n">
         <v>3</v>
       </c>
+      <c r="F182" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -3917,6 +4465,9 @@
       <c r="E183" t="n">
         <v>1</v>
       </c>
+      <c r="F183" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -3936,6 +4487,9 @@
       <c r="E184" t="n">
         <v>3</v>
       </c>
+      <c r="F184" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -3955,6 +4509,9 @@
       <c r="E185" t="n">
         <v>4</v>
       </c>
+      <c r="F185" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -3974,6 +4531,9 @@
       <c r="E186" t="n">
         <v>1</v>
       </c>
+      <c r="F186" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -3993,6 +4553,9 @@
       <c r="E187" t="n">
         <v>4</v>
       </c>
+      <c r="F187" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -4012,6 +4575,9 @@
       <c r="E188" t="n">
         <v>4</v>
       </c>
+      <c r="F188" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -4031,6 +4597,9 @@
       <c r="E189" t="n">
         <v>1</v>
       </c>
+      <c r="F189" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -4050,6 +4619,9 @@
       <c r="E190" t="n">
         <v>4</v>
       </c>
+      <c r="F190" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -4069,6 +4641,9 @@
       <c r="E191" t="n">
         <v>4</v>
       </c>
+      <c r="F191" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -4088,6 +4663,9 @@
       <c r="E192" t="n">
         <v>3</v>
       </c>
+      <c r="F192" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -4107,6 +4685,9 @@
       <c r="E193" t="n">
         <v>4</v>
       </c>
+      <c r="F193" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -4126,6 +4707,9 @@
       <c r="E194" t="n">
         <v>3</v>
       </c>
+      <c r="F194" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -4145,6 +4729,9 @@
       <c r="E195" t="n">
         <v>3</v>
       </c>
+      <c r="F195" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -4164,6 +4751,9 @@
       <c r="E196" t="n">
         <v>4</v>
       </c>
+      <c r="F196" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -4183,6 +4773,9 @@
       <c r="E197" t="n">
         <v>1</v>
       </c>
+      <c r="F197" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -4202,6 +4795,9 @@
       <c r="E198" t="n">
         <v>3</v>
       </c>
+      <c r="F198" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -4221,6 +4817,9 @@
       <c r="E199" t="n">
         <v>1</v>
       </c>
+      <c r="F199" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -4240,6 +4839,9 @@
       <c r="E200" t="n">
         <v>4</v>
       </c>
+      <c r="F200" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -4259,6 +4861,9 @@
       <c r="E201" t="n">
         <v>1</v>
       </c>
+      <c r="F201" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -4278,6 +4883,9 @@
       <c r="E202" t="n">
         <v>4</v>
       </c>
+      <c r="F202" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -4297,6 +4905,9 @@
       <c r="E203" t="n">
         <v>4</v>
       </c>
+      <c r="F203" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -4316,6 +4927,9 @@
       <c r="E204" t="n">
         <v>4</v>
       </c>
+      <c r="F204" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -4335,6 +4949,9 @@
       <c r="E205" t="n">
         <v>3</v>
       </c>
+      <c r="F205" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -4354,6 +4971,9 @@
       <c r="E206" t="n">
         <v>4</v>
       </c>
+      <c r="F206" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -4373,6 +4993,9 @@
       <c r="E207" t="n">
         <v>3</v>
       </c>
+      <c r="F207" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -4392,6 +5015,9 @@
       <c r="E208" t="n">
         <v>1</v>
       </c>
+      <c r="F208" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -4411,6 +5037,9 @@
       <c r="E209" t="n">
         <v>4</v>
       </c>
+      <c r="F209" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -4430,6 +5059,9 @@
       <c r="E210" t="n">
         <v>3</v>
       </c>
+      <c r="F210" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -4449,6 +5081,9 @@
       <c r="E211" t="n">
         <v>4</v>
       </c>
+      <c r="F211" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -4468,6 +5103,9 @@
       <c r="E212" t="n">
         <v>1</v>
       </c>
+      <c r="F212" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -4487,6 +5125,9 @@
       <c r="E213" t="n">
         <v>1</v>
       </c>
+      <c r="F213" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -4506,6 +5147,9 @@
       <c r="E214" t="n">
         <v>4</v>
       </c>
+      <c r="F214" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -4525,6 +5169,9 @@
       <c r="E215" t="n">
         <v>4</v>
       </c>
+      <c r="F215" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -4544,6 +5191,9 @@
       <c r="E216" t="n">
         <v>3</v>
       </c>
+      <c r="F216" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -4563,6 +5213,9 @@
       <c r="E217" t="n">
         <v>3</v>
       </c>
+      <c r="F217" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -4582,6 +5235,9 @@
       <c r="E218" t="n">
         <v>1</v>
       </c>
+      <c r="F218" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -4601,6 +5257,9 @@
       <c r="E219" t="n">
         <v>3</v>
       </c>
+      <c r="F219" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -4620,6 +5279,9 @@
       <c r="E220" t="n">
         <v>4</v>
       </c>
+      <c r="F220" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -4639,6 +5301,9 @@
       <c r="E221" t="n">
         <v>3</v>
       </c>
+      <c r="F221" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -4658,6 +5323,9 @@
       <c r="E222" t="n">
         <v>1</v>
       </c>
+      <c r="F222" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -4677,6 +5345,9 @@
       <c r="E223" t="n">
         <v>3</v>
       </c>
+      <c r="F223" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -4696,6 +5367,9 @@
       <c r="E224" t="n">
         <v>3</v>
       </c>
+      <c r="F224" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -4715,6 +5389,9 @@
       <c r="E225" t="n">
         <v>4</v>
       </c>
+      <c r="F225" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -4734,6 +5411,9 @@
       <c r="E226" t="n">
         <v>4</v>
       </c>
+      <c r="F226" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -4753,6 +5433,9 @@
       <c r="E227" t="n">
         <v>1</v>
       </c>
+      <c r="F227" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -4772,6 +5455,9 @@
       <c r="E228" t="n">
         <v>1</v>
       </c>
+      <c r="F228" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -4791,6 +5477,9 @@
       <c r="E229" t="n">
         <v>3</v>
       </c>
+      <c r="F229" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -4810,6 +5499,9 @@
       <c r="E230" t="n">
         <v>4</v>
       </c>
+      <c r="F230" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -4829,6 +5521,9 @@
       <c r="E231" t="n">
         <v>4</v>
       </c>
+      <c r="F231" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -4848,6 +5543,9 @@
       <c r="E232" t="n">
         <v>1</v>
       </c>
+      <c r="F232" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -4867,6 +5565,9 @@
       <c r="E233" t="n">
         <v>3</v>
       </c>
+      <c r="F233" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -4886,6 +5587,9 @@
       <c r="E234" t="n">
         <v>3</v>
       </c>
+      <c r="F234" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -4905,6 +5609,9 @@
       <c r="E235" t="n">
         <v>3</v>
       </c>
+      <c r="F235" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -4924,6 +5631,9 @@
       <c r="E236" t="n">
         <v>3</v>
       </c>
+      <c r="F236" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -4943,6 +5653,9 @@
       <c r="E237" t="n">
         <v>3</v>
       </c>
+      <c r="F237" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -4962,6 +5675,9 @@
       <c r="E238" t="n">
         <v>3</v>
       </c>
+      <c r="F238" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -4981,6 +5697,9 @@
       <c r="E239" t="n">
         <v>4</v>
       </c>
+      <c r="F239" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -5000,6 +5719,9 @@
       <c r="E240" t="n">
         <v>4</v>
       </c>
+      <c r="F240" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -5019,6 +5741,9 @@
       <c r="E241" t="n">
         <v>4</v>
       </c>
+      <c r="F241" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -5038,6 +5763,9 @@
       <c r="E242" t="n">
         <v>4</v>
       </c>
+      <c r="F242" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -5057,6 +5785,9 @@
       <c r="E243" t="n">
         <v>4</v>
       </c>
+      <c r="F243" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -5074,6 +5805,9 @@
         <v>4</v>
       </c>
       <c r="E244" t="n">
+        <v>4</v>
+      </c>
+      <c r="F244" t="n">
         <v>4</v>
       </c>
     </row>
